--- a/EHS2019/EHS/ExcelGenerator/Template/eHSVF005-VaccinationFileTemplate.xlsx
+++ b/EHS2019/EHS/ExcelGenerator/Template/eHSVF005-VaccinationFileTemplate.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\swl109\Documents\GitHub\EHS\EHS2019\EHS\ExcelGenerator\Template\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="135" windowWidth="18195" windowHeight="11565"/>
   </bookViews>
@@ -174,7 +179,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF0000FF"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -257,7 +262,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -268,7 +273,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF0000FF"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -278,7 +283,7 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -292,15 +297,15 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="dd\ mmm\ yyyy"/>
-    <numFmt numFmtId="165" formatCode="dd\ mmm\ yyyy\ hh:mm"/>
-    <numFmt numFmtId="166" formatCode="yyyy/mm/dd"/>
+    <numFmt numFmtId="176" formatCode="dd\ mmm\ yyyy"/>
+    <numFmt numFmtId="177" formatCode="dd\ mmm\ yyyy\ hh:mm"/>
+    <numFmt numFmtId="178" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="43">
+  <fonts count="45" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -308,35 +313,35 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -378,7 +383,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="1"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -386,7 +391,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="1"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -400,39 +405,34 @@
     <font>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="HA_MingLiu"/>
-      <family val="3"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -441,7 +441,7 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -455,7 +455,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -464,7 +464,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -600,8 +600,30 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -965,7 +987,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
@@ -993,10 +1015,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
@@ -1020,25 +1042,43 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1047,87 +1087,69 @@
     <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
@@ -1136,7 +1158,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
@@ -1149,36 +1171,36 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="14" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="14" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
@@ -1228,7 +1250,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1">
       <alignment vertical="center"/>
@@ -1256,7 +1278,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1272,11 +1294,11 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1303,16 +1325,13 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1320,20 +1339,20 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="20" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="20">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="20" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="20">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="20" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="20" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1357,6 +1376,16 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="42" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="176">
@@ -1548,6 +1577,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -1595,7 +1627,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1630,7 +1662,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1843,7 +1875,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="41.5703125" style="5" customWidth="1"/>
     <col min="2" max="2" width="21.42578125" style="10" customWidth="1"/>
@@ -1851,89 +1883,90 @@
     <col min="4" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="4" customFormat="1" ht="15.75">
+    <row r="1" spans="1:3" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B1" s="8"/>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="3"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B3" s="6"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B4" s="7"/>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B5" s="7"/>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
       <c r="B6" s="7"/>
     </row>
-    <row r="7" spans="1:3" s="13" customFormat="1">
+    <row r="7" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B7" s="7"/>
     </row>
-    <row r="8" spans="1:3" s="13" customFormat="1">
+    <row r="8" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="B8" s="7"/>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="7"/>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
         <v>18</v>
       </c>
       <c r="B10" s="9"/>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:3" s="16" customFormat="1">
+    <row r="15" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="17"/>
     </row>
-    <row r="16" spans="1:3" s="16" customFormat="1">
+    <row r="16" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="20" t="s">
         <v>47</v>
       </c>
       <c r="B16" s="21"/>
       <c r="C16" s="19"/>
     </row>
-    <row r="17" spans="1:2" s="13" customFormat="1">
+    <row r="17" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="14"/>
       <c r="B17" s="15"/>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B18" s="11"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="44" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
@@ -1952,77 +1985,77 @@
       <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8" style="35" customWidth="1"/>
-    <col min="2" max="2" width="6.42578125" style="35" customWidth="1"/>
-    <col min="3" max="3" width="5.42578125" style="35" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" style="35" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" style="35" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" style="35" customWidth="1"/>
-    <col min="7" max="7" width="4.140625" style="35" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" style="44" customWidth="1"/>
-    <col min="9" max="9" width="8.85546875" style="35" customWidth="1"/>
-    <col min="10" max="10" width="4.7109375" style="35" customWidth="1"/>
-    <col min="11" max="11" width="15.28515625" style="35" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" style="35"/>
-    <col min="13" max="13" width="13.140625" style="35" customWidth="1"/>
-    <col min="14" max="14" width="10.42578125" style="35" customWidth="1"/>
-    <col min="15" max="15" width="11.85546875" style="35" customWidth="1"/>
-    <col min="16" max="16" width="9.140625" style="35"/>
-    <col min="17" max="17" width="10.5703125" style="35" customWidth="1"/>
-    <col min="18" max="18" width="12" style="36" customWidth="1"/>
-    <col min="19" max="19" width="21.85546875" style="35" customWidth="1"/>
-    <col min="20" max="20" width="14.7109375" style="35" customWidth="1"/>
-    <col min="21" max="21" width="12" style="36" customWidth="1"/>
-    <col min="22" max="25" width="9.140625" style="35"/>
-    <col min="26" max="26" width="18.5703125" style="35" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="35"/>
+    <col min="1" max="1" width="8" style="34" customWidth="1"/>
+    <col min="2" max="2" width="6.42578125" style="34" customWidth="1"/>
+    <col min="3" max="3" width="5.42578125" style="34" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" style="51" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" style="34" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" style="34" customWidth="1"/>
+    <col min="7" max="7" width="4.140625" style="34" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" style="43" customWidth="1"/>
+    <col min="9" max="9" width="8.85546875" style="34" customWidth="1"/>
+    <col min="10" max="10" width="4.7109375" style="34" customWidth="1"/>
+    <col min="11" max="11" width="15.28515625" style="34" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="34"/>
+    <col min="13" max="13" width="13.140625" style="34" customWidth="1"/>
+    <col min="14" max="14" width="10.42578125" style="51" customWidth="1"/>
+    <col min="15" max="15" width="11.85546875" style="34" customWidth="1"/>
+    <col min="16" max="16" width="9.140625" style="34"/>
+    <col min="17" max="17" width="10.5703125" style="34" customWidth="1"/>
+    <col min="18" max="18" width="12" style="35" customWidth="1"/>
+    <col min="19" max="19" width="21.85546875" style="34" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" style="34" customWidth="1"/>
+    <col min="21" max="21" width="12" style="35" customWidth="1"/>
+    <col min="22" max="25" width="9.140625" style="34"/>
+    <col min="26" max="26" width="18.5703125" style="34" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="34"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="23" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A1" s="46" t="s">
+    <row r="1" spans="1:26" s="23" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
       <c r="J1" s="22"/>
-      <c r="K1" s="47" t="s">
+      <c r="K1" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
-      <c r="N1" s="48"/>
-      <c r="O1" s="48"/>
-      <c r="P1" s="48"/>
-      <c r="Q1" s="48"/>
-      <c r="R1" s="48"/>
-      <c r="S1" s="48"/>
-      <c r="T1" s="48"/>
-      <c r="U1" s="48"/>
-      <c r="V1" s="48"/>
-      <c r="W1" s="48"/>
-      <c r="X1" s="48"/>
-      <c r="Y1" s="48"/>
-      <c r="Z1" s="49"/>
-    </row>
-    <row r="2" spans="1:26" s="28" customFormat="1" ht="90" customHeight="1">
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="47"/>
+      <c r="P1" s="47"/>
+      <c r="Q1" s="47"/>
+      <c r="R1" s="47"/>
+      <c r="S1" s="47"/>
+      <c r="T1" s="47"/>
+      <c r="U1" s="47"/>
+      <c r="V1" s="47"/>
+      <c r="W1" s="47"/>
+      <c r="X1" s="47"/>
+      <c r="Y1" s="47"/>
+      <c r="Z1" s="48"/>
+    </row>
+    <row r="2" spans="1:26" s="28" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="52" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="24" t="s">
@@ -2041,7 +2074,7 @@
         <v>6</v>
       </c>
       <c r="J2" s="25"/>
-      <c r="K2" s="45" t="s">
+      <c r="K2" s="44" t="s">
         <v>49</v>
       </c>
       <c r="L2" s="26" t="s">
@@ -2050,7 +2083,7 @@
       <c r="M2" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="N2" s="26" t="s">
+      <c r="N2" s="49" t="s">
         <v>1</v>
       </c>
       <c r="O2" s="26" t="s">
@@ -2086,630 +2119,631 @@
       <c r="Y2" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="Z2" s="42" t="s">
+      <c r="Z2" s="41" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:26" s="29" customFormat="1" ht="15.75">
-      <c r="D3" s="30"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="43"/>
-      <c r="J3" s="32"/>
-      <c r="N3" s="30"/>
-      <c r="R3" s="33"/>
-      <c r="U3" s="33"/>
-      <c r="V3" s="33"/>
-      <c r="W3" s="34"/>
-      <c r="X3" s="34"/>
-      <c r="Y3" s="34"/>
-    </row>
-    <row r="4" spans="1:26" s="29" customFormat="1" ht="15.75">
-      <c r="D4" s="30"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="43"/>
-      <c r="J4" s="32"/>
-      <c r="N4" s="30"/>
-      <c r="R4" s="33"/>
-      <c r="U4" s="33"/>
-      <c r="V4" s="33"/>
-      <c r="W4" s="34"/>
-      <c r="X4" s="34"/>
-      <c r="Y4" s="34"/>
-    </row>
-    <row r="5" spans="1:26" s="29" customFormat="1" ht="15.75">
-      <c r="D5" s="30"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="43"/>
-      <c r="J5" s="32"/>
-      <c r="N5" s="30"/>
-      <c r="R5" s="33"/>
-      <c r="U5" s="33"/>
-      <c r="V5" s="33"/>
-      <c r="W5" s="34"/>
-      <c r="X5" s="34"/>
-      <c r="Y5" s="34"/>
-    </row>
-    <row r="6" spans="1:26" s="29" customFormat="1" ht="15.75">
-      <c r="D6" s="30"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="43"/>
-      <c r="J6" s="32"/>
-      <c r="N6" s="30"/>
-      <c r="R6" s="33"/>
-      <c r="U6" s="33"/>
-      <c r="V6" s="33"/>
-      <c r="W6" s="34"/>
-      <c r="X6" s="34"/>
-      <c r="Y6" s="34"/>
-    </row>
-    <row r="7" spans="1:26" s="29" customFormat="1" ht="15.75">
-      <c r="D7" s="30"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="43"/>
-      <c r="J7" s="32"/>
-      <c r="N7" s="30"/>
-      <c r="R7" s="33"/>
-      <c r="U7" s="33"/>
-      <c r="V7" s="33"/>
-      <c r="W7" s="34"/>
-      <c r="X7" s="34"/>
-      <c r="Y7" s="34"/>
-    </row>
-    <row r="8" spans="1:26" s="29" customFormat="1" ht="15.75">
-      <c r="D8" s="30"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="43"/>
-      <c r="J8" s="32"/>
-      <c r="N8" s="30"/>
-      <c r="R8" s="33"/>
-      <c r="U8" s="33"/>
-      <c r="V8" s="33"/>
-      <c r="W8" s="34"/>
-      <c r="X8" s="34"/>
-      <c r="Y8" s="34"/>
-    </row>
-    <row r="9" spans="1:26" s="29" customFormat="1" ht="15.75">
-      <c r="D9" s="30"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="43"/>
-      <c r="J9" s="32"/>
-      <c r="N9" s="30"/>
-      <c r="R9" s="33"/>
-      <c r="U9" s="33"/>
-      <c r="V9" s="33"/>
-      <c r="W9" s="34"/>
-      <c r="X9" s="34"/>
-      <c r="Y9" s="34"/>
-    </row>
-    <row r="10" spans="1:26" s="29" customFormat="1" ht="15.75">
-      <c r="D10" s="30"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="43"/>
-      <c r="J10" s="32"/>
-      <c r="N10" s="30"/>
-      <c r="R10" s="33"/>
-      <c r="U10" s="33"/>
-      <c r="V10" s="33"/>
-      <c r="W10" s="34"/>
-      <c r="X10" s="34"/>
-      <c r="Y10" s="34"/>
-    </row>
-    <row r="11" spans="1:26" s="29" customFormat="1" ht="15.75">
-      <c r="D11" s="30"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="43"/>
-      <c r="J11" s="32"/>
-      <c r="N11" s="30"/>
-      <c r="R11" s="33"/>
-      <c r="U11" s="33"/>
-      <c r="V11" s="33"/>
-      <c r="W11" s="34"/>
-      <c r="X11" s="34"/>
-      <c r="Y11" s="34"/>
-    </row>
-    <row r="12" spans="1:26" s="29" customFormat="1" ht="15.75">
-      <c r="D12" s="30"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="43"/>
-      <c r="J12" s="32"/>
-      <c r="N12" s="30"/>
-      <c r="R12" s="33"/>
-      <c r="U12" s="33"/>
-      <c r="V12" s="33"/>
-      <c r="W12" s="34"/>
-      <c r="X12" s="34"/>
-      <c r="Y12" s="34"/>
-    </row>
-    <row r="13" spans="1:26" s="29" customFormat="1" ht="15.75">
-      <c r="D13" s="30"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="43"/>
-      <c r="J13" s="32"/>
-      <c r="N13" s="30"/>
-      <c r="R13" s="33"/>
-      <c r="U13" s="33"/>
-      <c r="V13" s="33"/>
-      <c r="W13" s="34"/>
-      <c r="X13" s="34"/>
-      <c r="Y13" s="34"/>
-    </row>
-    <row r="14" spans="1:26" s="29" customFormat="1" ht="15.75">
-      <c r="D14" s="30"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="43"/>
-      <c r="J14" s="32"/>
-      <c r="N14" s="30"/>
-      <c r="R14" s="33"/>
-      <c r="U14" s="33"/>
-      <c r="V14" s="33"/>
-      <c r="W14" s="34"/>
-      <c r="X14" s="34"/>
-      <c r="Y14" s="34"/>
-    </row>
-    <row r="15" spans="1:26" s="29" customFormat="1" ht="15.75">
-      <c r="D15" s="30"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="43"/>
-      <c r="J15" s="32"/>
-      <c r="N15" s="30"/>
-      <c r="R15" s="33"/>
-      <c r="U15" s="33"/>
-      <c r="V15" s="33"/>
-      <c r="W15" s="34"/>
-      <c r="X15" s="34"/>
-      <c r="Y15" s="34"/>
-    </row>
-    <row r="16" spans="1:26" s="29" customFormat="1" ht="15.75">
-      <c r="D16" s="30"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="43"/>
-      <c r="J16" s="32"/>
-      <c r="N16" s="30"/>
-      <c r="R16" s="33"/>
-      <c r="U16" s="33"/>
-      <c r="V16" s="33"/>
-      <c r="W16" s="34"/>
-      <c r="X16" s="34"/>
-      <c r="Y16" s="34"/>
-    </row>
-    <row r="17" spans="4:25" s="29" customFormat="1" ht="15.75">
-      <c r="D17" s="30"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="43"/>
-      <c r="J17" s="32"/>
-      <c r="N17" s="30"/>
-      <c r="R17" s="33"/>
-      <c r="U17" s="33"/>
-      <c r="V17" s="33"/>
-      <c r="W17" s="34"/>
-      <c r="X17" s="34"/>
-      <c r="Y17" s="34"/>
-    </row>
-    <row r="18" spans="4:25" s="29" customFormat="1" ht="15.75">
-      <c r="D18" s="30"/>
-      <c r="H18" s="34"/>
-      <c r="J18" s="32"/>
-      <c r="N18" s="30"/>
-      <c r="R18" s="33"/>
-      <c r="U18" s="33"/>
-      <c r="V18" s="33"/>
-      <c r="W18" s="34"/>
-      <c r="X18" s="34"/>
-      <c r="Y18" s="34"/>
-    </row>
-    <row r="19" spans="4:25" s="29" customFormat="1" ht="15.75">
-      <c r="D19" s="30"/>
-      <c r="H19" s="34"/>
-      <c r="J19" s="32"/>
-      <c r="N19" s="30"/>
-      <c r="R19" s="33"/>
-      <c r="U19" s="33"/>
-      <c r="V19" s="33"/>
-      <c r="W19" s="34"/>
-      <c r="X19" s="34"/>
-      <c r="Y19" s="34"/>
-    </row>
-    <row r="20" spans="4:25" s="29" customFormat="1" ht="15.75">
-      <c r="D20" s="30"/>
-      <c r="H20" s="34"/>
-      <c r="J20" s="32"/>
-      <c r="N20" s="30"/>
-      <c r="R20" s="33"/>
-      <c r="U20" s="33"/>
-      <c r="V20" s="33"/>
-      <c r="W20" s="34"/>
-      <c r="X20" s="34"/>
-      <c r="Y20" s="34"/>
-    </row>
-    <row r="21" spans="4:25" s="29" customFormat="1" ht="15.75">
-      <c r="D21" s="30"/>
-      <c r="H21" s="34"/>
-      <c r="J21" s="32"/>
-      <c r="N21" s="30"/>
-      <c r="R21" s="33"/>
-      <c r="U21" s="33"/>
-      <c r="V21" s="33"/>
-      <c r="W21" s="34"/>
-      <c r="X21" s="34"/>
-      <c r="Y21" s="34"/>
-    </row>
-    <row r="22" spans="4:25" s="29" customFormat="1" ht="15.75">
-      <c r="D22" s="30"/>
-      <c r="H22" s="34"/>
-      <c r="J22" s="32"/>
-      <c r="N22" s="30"/>
-      <c r="R22" s="33"/>
-      <c r="U22" s="33"/>
-      <c r="V22" s="33"/>
-      <c r="W22" s="34"/>
-      <c r="X22" s="34"/>
-      <c r="Y22" s="34"/>
-    </row>
-    <row r="23" spans="4:25" s="29" customFormat="1" ht="15.75">
-      <c r="D23" s="30"/>
-      <c r="H23" s="34"/>
-      <c r="J23" s="32"/>
-      <c r="N23" s="30"/>
-      <c r="R23" s="33"/>
-      <c r="U23" s="33"/>
-      <c r="V23" s="33"/>
-      <c r="W23" s="34"/>
-      <c r="X23" s="34"/>
-      <c r="Y23" s="34"/>
-    </row>
-    <row r="24" spans="4:25" s="29" customFormat="1" ht="15.75">
-      <c r="D24" s="30"/>
-      <c r="H24" s="34"/>
-      <c r="J24" s="32"/>
-      <c r="N24" s="30"/>
-      <c r="R24" s="33"/>
-      <c r="U24" s="33"/>
-      <c r="V24" s="33"/>
-      <c r="W24" s="34"/>
-      <c r="X24" s="34"/>
-      <c r="Y24" s="34"/>
-    </row>
-    <row r="25" spans="4:25" s="29" customFormat="1" ht="15.75">
-      <c r="D25" s="30"/>
-      <c r="H25" s="34"/>
-      <c r="J25" s="32"/>
-      <c r="N25" s="30"/>
-      <c r="R25" s="33"/>
-      <c r="U25" s="33"/>
-      <c r="V25" s="33"/>
-      <c r="W25" s="34"/>
-      <c r="X25" s="34"/>
-      <c r="Y25" s="34"/>
-    </row>
-    <row r="26" spans="4:25" s="29" customFormat="1" ht="15.75">
-      <c r="D26" s="30"/>
-      <c r="H26" s="34"/>
-      <c r="J26" s="32"/>
-      <c r="N26" s="30"/>
-      <c r="R26" s="33"/>
-      <c r="U26" s="33"/>
-      <c r="V26" s="33"/>
-      <c r="W26" s="34"/>
-      <c r="X26" s="34"/>
-      <c r="Y26" s="34"/>
-    </row>
-    <row r="27" spans="4:25" s="29" customFormat="1" ht="15.75">
-      <c r="D27" s="30"/>
-      <c r="H27" s="34"/>
-      <c r="J27" s="32"/>
-      <c r="N27" s="30"/>
-      <c r="R27" s="33"/>
-      <c r="U27" s="33"/>
-      <c r="V27" s="33"/>
-      <c r="W27" s="34"/>
-      <c r="X27" s="34"/>
-      <c r="Y27" s="34"/>
-    </row>
-    <row r="28" spans="4:25" s="29" customFormat="1" ht="15.75">
-      <c r="D28" s="30"/>
-      <c r="H28" s="34"/>
-      <c r="J28" s="32"/>
-      <c r="N28" s="30"/>
-      <c r="R28" s="33"/>
-      <c r="U28" s="33"/>
-      <c r="V28" s="33"/>
-      <c r="W28" s="34"/>
-      <c r="X28" s="34"/>
-      <c r="Y28" s="34"/>
-    </row>
-    <row r="29" spans="4:25" s="29" customFormat="1" ht="15.75">
-      <c r="D29" s="30"/>
-      <c r="H29" s="34"/>
-      <c r="J29" s="32"/>
-      <c r="N29" s="30"/>
-      <c r="R29" s="33"/>
-      <c r="U29" s="33"/>
-      <c r="V29" s="33"/>
-      <c r="W29" s="34"/>
-      <c r="X29" s="34"/>
-      <c r="Y29" s="34"/>
-    </row>
-    <row r="30" spans="4:25" s="29" customFormat="1" ht="15.75">
-      <c r="D30" s="30"/>
-      <c r="H30" s="34"/>
-      <c r="J30" s="32"/>
-      <c r="N30" s="30"/>
-      <c r="R30" s="33"/>
-      <c r="U30" s="33"/>
-      <c r="V30" s="33"/>
-      <c r="W30" s="34"/>
-      <c r="X30" s="34"/>
-      <c r="Y30" s="34"/>
-    </row>
-    <row r="31" spans="4:25" s="29" customFormat="1" ht="15.75">
-      <c r="D31" s="30"/>
-      <c r="H31" s="34"/>
-      <c r="J31" s="32"/>
-      <c r="N31" s="30"/>
-      <c r="R31" s="33"/>
-      <c r="U31" s="33"/>
-      <c r="V31" s="33"/>
-      <c r="W31" s="34"/>
-      <c r="X31" s="34"/>
-      <c r="Y31" s="34"/>
-    </row>
-    <row r="32" spans="4:25" s="29" customFormat="1" ht="15.75">
-      <c r="D32" s="30"/>
-      <c r="H32" s="34"/>
-      <c r="J32" s="32"/>
-      <c r="N32" s="30"/>
-      <c r="R32" s="33"/>
-      <c r="U32" s="33"/>
-      <c r="V32" s="33"/>
-      <c r="W32" s="34"/>
-      <c r="X32" s="34"/>
-      <c r="Y32" s="34"/>
-    </row>
-    <row r="33" spans="4:25" s="29" customFormat="1" ht="15.75">
-      <c r="D33" s="30"/>
-      <c r="H33" s="34"/>
-      <c r="J33" s="32"/>
-      <c r="N33" s="30"/>
-      <c r="R33" s="33"/>
-      <c r="U33" s="33"/>
-      <c r="V33" s="33"/>
-      <c r="W33" s="34"/>
-      <c r="X33" s="34"/>
-      <c r="Y33" s="34"/>
-    </row>
-    <row r="34" spans="4:25" s="29" customFormat="1" ht="15.75">
-      <c r="D34" s="30"/>
-      <c r="H34" s="34"/>
-      <c r="J34" s="32"/>
-      <c r="N34" s="30"/>
-      <c r="R34" s="33"/>
-      <c r="U34" s="33"/>
-      <c r="V34" s="33"/>
-      <c r="W34" s="34"/>
-      <c r="X34" s="34"/>
-      <c r="Y34" s="34"/>
-    </row>
-    <row r="35" spans="4:25" s="29" customFormat="1" ht="15.75">
-      <c r="D35" s="30"/>
-      <c r="H35" s="34"/>
-      <c r="J35" s="32"/>
-      <c r="N35" s="30"/>
-      <c r="R35" s="33"/>
-      <c r="U35" s="33"/>
-      <c r="V35" s="33"/>
-      <c r="W35" s="34"/>
-      <c r="X35" s="34"/>
-      <c r="Y35" s="34"/>
-    </row>
-    <row r="36" spans="4:25" s="29" customFormat="1" ht="15.75">
-      <c r="D36" s="30"/>
-      <c r="H36" s="34"/>
-      <c r="J36" s="32"/>
-      <c r="N36" s="30"/>
-      <c r="R36" s="33"/>
-      <c r="U36" s="33"/>
-      <c r="V36" s="33"/>
-      <c r="W36" s="34"/>
-      <c r="X36" s="34"/>
-      <c r="Y36" s="34"/>
-    </row>
-    <row r="37" spans="4:25" s="29" customFormat="1" ht="15.75">
-      <c r="D37" s="30"/>
-      <c r="H37" s="34"/>
-      <c r="J37" s="32"/>
-      <c r="N37" s="30"/>
-      <c r="R37" s="33"/>
-      <c r="U37" s="33"/>
-      <c r="V37" s="33"/>
-      <c r="W37" s="34"/>
-      <c r="X37" s="34"/>
-      <c r="Y37" s="34"/>
-    </row>
-    <row r="38" spans="4:25" s="29" customFormat="1" ht="15.75">
-      <c r="D38" s="30"/>
-      <c r="H38" s="34"/>
-      <c r="J38" s="32"/>
-      <c r="N38" s="30"/>
-      <c r="R38" s="33"/>
-      <c r="U38" s="33"/>
-      <c r="V38" s="33"/>
-      <c r="W38" s="34"/>
-      <c r="X38" s="34"/>
-      <c r="Y38" s="34"/>
-    </row>
-    <row r="39" spans="4:25" s="29" customFormat="1" ht="15.75">
-      <c r="D39" s="30"/>
-      <c r="H39" s="34"/>
-      <c r="J39" s="32"/>
-      <c r="N39" s="30"/>
-      <c r="R39" s="33"/>
-      <c r="U39" s="33"/>
-      <c r="V39" s="33"/>
-      <c r="W39" s="34"/>
-      <c r="X39" s="34"/>
-      <c r="Y39" s="34"/>
-    </row>
-    <row r="40" spans="4:25" s="29" customFormat="1" ht="15.75">
-      <c r="D40" s="30"/>
-      <c r="H40" s="34"/>
-      <c r="J40" s="32"/>
-      <c r="N40" s="30"/>
-      <c r="R40" s="33"/>
-      <c r="U40" s="33"/>
-      <c r="V40" s="33"/>
-      <c r="W40" s="34"/>
-      <c r="X40" s="34"/>
-      <c r="Y40" s="34"/>
-    </row>
-    <row r="41" spans="4:25" s="29" customFormat="1" ht="15.75">
-      <c r="D41" s="30"/>
-      <c r="H41" s="34"/>
-      <c r="J41" s="32"/>
-      <c r="N41" s="30"/>
-      <c r="R41" s="33"/>
-      <c r="U41" s="33"/>
-      <c r="V41" s="33"/>
-      <c r="W41" s="34"/>
-      <c r="X41" s="34"/>
-      <c r="Y41" s="34"/>
-    </row>
-    <row r="42" spans="4:25" s="29" customFormat="1" ht="15.75">
-      <c r="D42" s="30"/>
-      <c r="H42" s="34"/>
-      <c r="J42" s="32"/>
-      <c r="N42" s="30"/>
-      <c r="R42" s="33"/>
-      <c r="U42" s="33"/>
-      <c r="V42" s="33"/>
-      <c r="W42" s="34"/>
-      <c r="X42" s="34"/>
-      <c r="Y42" s="34"/>
-    </row>
-    <row r="43" spans="4:25" s="29" customFormat="1" ht="15.75">
-      <c r="D43" s="30"/>
-      <c r="H43" s="34"/>
-      <c r="J43" s="32"/>
-      <c r="N43" s="30"/>
-      <c r="R43" s="33"/>
-      <c r="U43" s="33"/>
-      <c r="V43" s="33"/>
-      <c r="W43" s="34"/>
-      <c r="X43" s="34"/>
-      <c r="Y43" s="34"/>
-    </row>
-    <row r="44" spans="4:25" s="29" customFormat="1" ht="15.75">
-      <c r="D44" s="30"/>
-      <c r="H44" s="34"/>
-      <c r="J44" s="32"/>
-      <c r="N44" s="30"/>
-      <c r="R44" s="33"/>
-      <c r="U44" s="33"/>
-      <c r="V44" s="33"/>
-      <c r="W44" s="34"/>
-      <c r="X44" s="34"/>
-      <c r="Y44" s="34"/>
-    </row>
-    <row r="45" spans="4:25" s="29" customFormat="1" ht="15.75">
-      <c r="D45" s="30"/>
-      <c r="H45" s="34"/>
-      <c r="J45" s="32"/>
-      <c r="N45" s="30"/>
-      <c r="R45" s="33"/>
-      <c r="U45" s="33"/>
-      <c r="V45" s="33"/>
-      <c r="W45" s="34"/>
-      <c r="X45" s="34"/>
-      <c r="Y45" s="34"/>
-    </row>
-    <row r="46" spans="4:25" s="29" customFormat="1" ht="15.75">
-      <c r="D46" s="30"/>
-      <c r="H46" s="34"/>
-      <c r="J46" s="32"/>
-      <c r="N46" s="30"/>
-      <c r="R46" s="33"/>
-      <c r="U46" s="33"/>
-      <c r="V46" s="33"/>
-      <c r="W46" s="34"/>
-      <c r="X46" s="34"/>
-      <c r="Y46" s="34"/>
-    </row>
-    <row r="47" spans="4:25" s="29" customFormat="1" ht="15.75">
-      <c r="D47" s="30"/>
-      <c r="H47" s="34"/>
-      <c r="J47" s="32"/>
-      <c r="N47" s="30"/>
-      <c r="R47" s="33"/>
-      <c r="U47" s="33"/>
-      <c r="V47" s="33"/>
-      <c r="W47" s="34"/>
-      <c r="X47" s="34"/>
-      <c r="Y47" s="34"/>
-    </row>
-    <row r="48" spans="4:25" s="29" customFormat="1" ht="15.75">
-      <c r="D48" s="30"/>
-      <c r="H48" s="34"/>
-      <c r="J48" s="32"/>
-      <c r="N48" s="30"/>
-      <c r="R48" s="33"/>
-      <c r="U48" s="33"/>
-      <c r="V48" s="33"/>
-      <c r="W48" s="34"/>
-      <c r="X48" s="34"/>
-      <c r="Y48" s="34"/>
-    </row>
-    <row r="49" spans="4:25" s="29" customFormat="1" ht="15.75">
-      <c r="D49" s="30"/>
-      <c r="H49" s="34"/>
-      <c r="J49" s="32"/>
-      <c r="N49" s="30"/>
-      <c r="R49" s="33"/>
-      <c r="U49" s="33"/>
-      <c r="V49" s="33"/>
-      <c r="W49" s="34"/>
-      <c r="X49" s="34"/>
-      <c r="Y49" s="34"/>
-    </row>
-    <row r="50" spans="4:25" s="29" customFormat="1" ht="15.75">
-      <c r="D50" s="30"/>
-      <c r="H50" s="34"/>
-      <c r="J50" s="32"/>
-      <c r="N50" s="30"/>
-      <c r="R50" s="33"/>
-      <c r="U50" s="33"/>
-      <c r="V50" s="33"/>
-      <c r="W50" s="34"/>
-      <c r="X50" s="34"/>
-      <c r="Y50" s="34"/>
-    </row>
-    <row r="51" spans="4:25" s="29" customFormat="1" ht="15.75">
-      <c r="D51" s="30"/>
-      <c r="H51" s="34"/>
-      <c r="J51" s="32"/>
-      <c r="N51" s="30"/>
-      <c r="R51" s="33"/>
-      <c r="U51" s="33"/>
-      <c r="V51" s="33"/>
-      <c r="W51" s="34"/>
-      <c r="X51" s="34"/>
-      <c r="Y51" s="34"/>
-    </row>
-    <row r="52" spans="4:25" s="29" customFormat="1" ht="15.75">
-      <c r="D52" s="30"/>
-      <c r="H52" s="34"/>
-      <c r="J52" s="32"/>
-      <c r="N52" s="30"/>
-      <c r="R52" s="33"/>
-      <c r="U52" s="33"/>
-      <c r="V52" s="33"/>
-      <c r="W52" s="34"/>
-      <c r="X52" s="34"/>
-      <c r="Y52" s="34"/>
+    <row r="3" spans="1:26" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D3" s="50"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="42"/>
+      <c r="J3" s="31"/>
+      <c r="N3" s="50"/>
+      <c r="R3" s="32"/>
+      <c r="U3" s="32"/>
+      <c r="V3" s="32"/>
+      <c r="W3" s="33"/>
+      <c r="X3" s="33"/>
+      <c r="Y3" s="33"/>
+    </row>
+    <row r="4" spans="1:26" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D4" s="50"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="42"/>
+      <c r="J4" s="31"/>
+      <c r="N4" s="50"/>
+      <c r="R4" s="32"/>
+      <c r="U4" s="32"/>
+      <c r="V4" s="32"/>
+      <c r="W4" s="33"/>
+      <c r="X4" s="33"/>
+      <c r="Y4" s="33"/>
+    </row>
+    <row r="5" spans="1:26" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D5" s="50"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="42"/>
+      <c r="J5" s="31"/>
+      <c r="N5" s="50"/>
+      <c r="R5" s="32"/>
+      <c r="U5" s="32"/>
+      <c r="V5" s="32"/>
+      <c r="W5" s="33"/>
+      <c r="X5" s="33"/>
+      <c r="Y5" s="33"/>
+    </row>
+    <row r="6" spans="1:26" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D6" s="50"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="42"/>
+      <c r="J6" s="31"/>
+      <c r="N6" s="50"/>
+      <c r="R6" s="32"/>
+      <c r="U6" s="32"/>
+      <c r="V6" s="32"/>
+      <c r="W6" s="33"/>
+      <c r="X6" s="33"/>
+      <c r="Y6" s="33"/>
+    </row>
+    <row r="7" spans="1:26" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D7" s="50"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="42"/>
+      <c r="J7" s="31"/>
+      <c r="N7" s="50"/>
+      <c r="R7" s="32"/>
+      <c r="U7" s="32"/>
+      <c r="V7" s="32"/>
+      <c r="W7" s="33"/>
+      <c r="X7" s="33"/>
+      <c r="Y7" s="33"/>
+    </row>
+    <row r="8" spans="1:26" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D8" s="50"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="42"/>
+      <c r="J8" s="31"/>
+      <c r="N8" s="50"/>
+      <c r="R8" s="32"/>
+      <c r="U8" s="32"/>
+      <c r="V8" s="32"/>
+      <c r="W8" s="33"/>
+      <c r="X8" s="33"/>
+      <c r="Y8" s="33"/>
+    </row>
+    <row r="9" spans="1:26" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D9" s="50"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="42"/>
+      <c r="J9" s="31"/>
+      <c r="N9" s="50"/>
+      <c r="R9" s="32"/>
+      <c r="U9" s="32"/>
+      <c r="V9" s="32"/>
+      <c r="W9" s="33"/>
+      <c r="X9" s="33"/>
+      <c r="Y9" s="33"/>
+    </row>
+    <row r="10" spans="1:26" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D10" s="50"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="42"/>
+      <c r="J10" s="31"/>
+      <c r="N10" s="50"/>
+      <c r="R10" s="32"/>
+      <c r="U10" s="32"/>
+      <c r="V10" s="32"/>
+      <c r="W10" s="33"/>
+      <c r="X10" s="33"/>
+      <c r="Y10" s="33"/>
+    </row>
+    <row r="11" spans="1:26" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D11" s="50"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="42"/>
+      <c r="J11" s="31"/>
+      <c r="N11" s="50"/>
+      <c r="R11" s="32"/>
+      <c r="U11" s="32"/>
+      <c r="V11" s="32"/>
+      <c r="W11" s="33"/>
+      <c r="X11" s="33"/>
+      <c r="Y11" s="33"/>
+    </row>
+    <row r="12" spans="1:26" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D12" s="50"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="42"/>
+      <c r="J12" s="31"/>
+      <c r="N12" s="50"/>
+      <c r="R12" s="32"/>
+      <c r="U12" s="32"/>
+      <c r="V12" s="32"/>
+      <c r="W12" s="33"/>
+      <c r="X12" s="33"/>
+      <c r="Y12" s="33"/>
+    </row>
+    <row r="13" spans="1:26" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D13" s="50"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="42"/>
+      <c r="J13" s="31"/>
+      <c r="N13" s="50"/>
+      <c r="R13" s="32"/>
+      <c r="U13" s="32"/>
+      <c r="V13" s="32"/>
+      <c r="W13" s="33"/>
+      <c r="X13" s="33"/>
+      <c r="Y13" s="33"/>
+    </row>
+    <row r="14" spans="1:26" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D14" s="50"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="42"/>
+      <c r="J14" s="31"/>
+      <c r="N14" s="50"/>
+      <c r="R14" s="32"/>
+      <c r="U14" s="32"/>
+      <c r="V14" s="32"/>
+      <c r="W14" s="33"/>
+      <c r="X14" s="33"/>
+      <c r="Y14" s="33"/>
+    </row>
+    <row r="15" spans="1:26" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D15" s="50"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="42"/>
+      <c r="J15" s="31"/>
+      <c r="N15" s="50"/>
+      <c r="R15" s="32"/>
+      <c r="U15" s="32"/>
+      <c r="V15" s="32"/>
+      <c r="W15" s="33"/>
+      <c r="X15" s="33"/>
+      <c r="Y15" s="33"/>
+    </row>
+    <row r="16" spans="1:26" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D16" s="50"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="42"/>
+      <c r="J16" s="31"/>
+      <c r="N16" s="50"/>
+      <c r="R16" s="32"/>
+      <c r="U16" s="32"/>
+      <c r="V16" s="32"/>
+      <c r="W16" s="33"/>
+      <c r="X16" s="33"/>
+      <c r="Y16" s="33"/>
+    </row>
+    <row r="17" spans="4:25" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D17" s="50"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="42"/>
+      <c r="J17" s="31"/>
+      <c r="N17" s="50"/>
+      <c r="R17" s="32"/>
+      <c r="U17" s="32"/>
+      <c r="V17" s="32"/>
+      <c r="W17" s="33"/>
+      <c r="X17" s="33"/>
+      <c r="Y17" s="33"/>
+    </row>
+    <row r="18" spans="4:25" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D18" s="50"/>
+      <c r="H18" s="33"/>
+      <c r="J18" s="31"/>
+      <c r="N18" s="50"/>
+      <c r="R18" s="32"/>
+      <c r="U18" s="32"/>
+      <c r="V18" s="32"/>
+      <c r="W18" s="33"/>
+      <c r="X18" s="33"/>
+      <c r="Y18" s="33"/>
+    </row>
+    <row r="19" spans="4:25" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D19" s="50"/>
+      <c r="H19" s="33"/>
+      <c r="J19" s="31"/>
+      <c r="N19" s="50"/>
+      <c r="R19" s="32"/>
+      <c r="U19" s="32"/>
+      <c r="V19" s="32"/>
+      <c r="W19" s="33"/>
+      <c r="X19" s="33"/>
+      <c r="Y19" s="33"/>
+    </row>
+    <row r="20" spans="4:25" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D20" s="50"/>
+      <c r="H20" s="33"/>
+      <c r="J20" s="31"/>
+      <c r="N20" s="50"/>
+      <c r="R20" s="32"/>
+      <c r="U20" s="32"/>
+      <c r="V20" s="32"/>
+      <c r="W20" s="33"/>
+      <c r="X20" s="33"/>
+      <c r="Y20" s="33"/>
+    </row>
+    <row r="21" spans="4:25" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D21" s="50"/>
+      <c r="H21" s="33"/>
+      <c r="J21" s="31"/>
+      <c r="N21" s="50"/>
+      <c r="R21" s="32"/>
+      <c r="U21" s="32"/>
+      <c r="V21" s="32"/>
+      <c r="W21" s="33"/>
+      <c r="X21" s="33"/>
+      <c r="Y21" s="33"/>
+    </row>
+    <row r="22" spans="4:25" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D22" s="50"/>
+      <c r="H22" s="33"/>
+      <c r="J22" s="31"/>
+      <c r="N22" s="50"/>
+      <c r="R22" s="32"/>
+      <c r="U22" s="32"/>
+      <c r="V22" s="32"/>
+      <c r="W22" s="33"/>
+      <c r="X22" s="33"/>
+      <c r="Y22" s="33"/>
+    </row>
+    <row r="23" spans="4:25" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D23" s="50"/>
+      <c r="H23" s="33"/>
+      <c r="J23" s="31"/>
+      <c r="N23" s="50"/>
+      <c r="R23" s="32"/>
+      <c r="U23" s="32"/>
+      <c r="V23" s="32"/>
+      <c r="W23" s="33"/>
+      <c r="X23" s="33"/>
+      <c r="Y23" s="33"/>
+    </row>
+    <row r="24" spans="4:25" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D24" s="50"/>
+      <c r="H24" s="33"/>
+      <c r="J24" s="31"/>
+      <c r="N24" s="50"/>
+      <c r="R24" s="32"/>
+      <c r="U24" s="32"/>
+      <c r="V24" s="32"/>
+      <c r="W24" s="33"/>
+      <c r="X24" s="33"/>
+      <c r="Y24" s="33"/>
+    </row>
+    <row r="25" spans="4:25" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D25" s="50"/>
+      <c r="H25" s="33"/>
+      <c r="J25" s="31"/>
+      <c r="N25" s="50"/>
+      <c r="R25" s="32"/>
+      <c r="U25" s="32"/>
+      <c r="V25" s="32"/>
+      <c r="W25" s="33"/>
+      <c r="X25" s="33"/>
+      <c r="Y25" s="33"/>
+    </row>
+    <row r="26" spans="4:25" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D26" s="50"/>
+      <c r="H26" s="33"/>
+      <c r="J26" s="31"/>
+      <c r="N26" s="50"/>
+      <c r="R26" s="32"/>
+      <c r="U26" s="32"/>
+      <c r="V26" s="32"/>
+      <c r="W26" s="33"/>
+      <c r="X26" s="33"/>
+      <c r="Y26" s="33"/>
+    </row>
+    <row r="27" spans="4:25" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D27" s="50"/>
+      <c r="H27" s="33"/>
+      <c r="J27" s="31"/>
+      <c r="N27" s="50"/>
+      <c r="R27" s="32"/>
+      <c r="U27" s="32"/>
+      <c r="V27" s="32"/>
+      <c r="W27" s="33"/>
+      <c r="X27" s="33"/>
+      <c r="Y27" s="33"/>
+    </row>
+    <row r="28" spans="4:25" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D28" s="50"/>
+      <c r="H28" s="33"/>
+      <c r="J28" s="31"/>
+      <c r="N28" s="50"/>
+      <c r="R28" s="32"/>
+      <c r="U28" s="32"/>
+      <c r="V28" s="32"/>
+      <c r="W28" s="33"/>
+      <c r="X28" s="33"/>
+      <c r="Y28" s="33"/>
+    </row>
+    <row r="29" spans="4:25" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D29" s="50"/>
+      <c r="H29" s="33"/>
+      <c r="J29" s="31"/>
+      <c r="N29" s="50"/>
+      <c r="R29" s="32"/>
+      <c r="U29" s="32"/>
+      <c r="V29" s="32"/>
+      <c r="W29" s="33"/>
+      <c r="X29" s="33"/>
+      <c r="Y29" s="33"/>
+    </row>
+    <row r="30" spans="4:25" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D30" s="50"/>
+      <c r="H30" s="33"/>
+      <c r="J30" s="31"/>
+      <c r="N30" s="50"/>
+      <c r="R30" s="32"/>
+      <c r="U30" s="32"/>
+      <c r="V30" s="32"/>
+      <c r="W30" s="33"/>
+      <c r="X30" s="33"/>
+      <c r="Y30" s="33"/>
+    </row>
+    <row r="31" spans="4:25" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D31" s="50"/>
+      <c r="H31" s="33"/>
+      <c r="J31" s="31"/>
+      <c r="N31" s="50"/>
+      <c r="R31" s="32"/>
+      <c r="U31" s="32"/>
+      <c r="V31" s="32"/>
+      <c r="W31" s="33"/>
+      <c r="X31" s="33"/>
+      <c r="Y31" s="33"/>
+    </row>
+    <row r="32" spans="4:25" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D32" s="50"/>
+      <c r="H32" s="33"/>
+      <c r="J32" s="31"/>
+      <c r="N32" s="50"/>
+      <c r="R32" s="32"/>
+      <c r="U32" s="32"/>
+      <c r="V32" s="32"/>
+      <c r="W32" s="33"/>
+      <c r="X32" s="33"/>
+      <c r="Y32" s="33"/>
+    </row>
+    <row r="33" spans="4:25" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D33" s="50"/>
+      <c r="H33" s="33"/>
+      <c r="J33" s="31"/>
+      <c r="N33" s="50"/>
+      <c r="R33" s="32"/>
+      <c r="U33" s="32"/>
+      <c r="V33" s="32"/>
+      <c r="W33" s="33"/>
+      <c r="X33" s="33"/>
+      <c r="Y33" s="33"/>
+    </row>
+    <row r="34" spans="4:25" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D34" s="50"/>
+      <c r="H34" s="33"/>
+      <c r="J34" s="31"/>
+      <c r="N34" s="50"/>
+      <c r="R34" s="32"/>
+      <c r="U34" s="32"/>
+      <c r="V34" s="32"/>
+      <c r="W34" s="33"/>
+      <c r="X34" s="33"/>
+      <c r="Y34" s="33"/>
+    </row>
+    <row r="35" spans="4:25" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D35" s="50"/>
+      <c r="H35" s="33"/>
+      <c r="J35" s="31"/>
+      <c r="N35" s="50"/>
+      <c r="R35" s="32"/>
+      <c r="U35" s="32"/>
+      <c r="V35" s="32"/>
+      <c r="W35" s="33"/>
+      <c r="X35" s="33"/>
+      <c r="Y35" s="33"/>
+    </row>
+    <row r="36" spans="4:25" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D36" s="50"/>
+      <c r="H36" s="33"/>
+      <c r="J36" s="31"/>
+      <c r="N36" s="50"/>
+      <c r="R36" s="32"/>
+      <c r="U36" s="32"/>
+      <c r="V36" s="32"/>
+      <c r="W36" s="33"/>
+      <c r="X36" s="33"/>
+      <c r="Y36" s="33"/>
+    </row>
+    <row r="37" spans="4:25" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D37" s="50"/>
+      <c r="H37" s="33"/>
+      <c r="J37" s="31"/>
+      <c r="N37" s="50"/>
+      <c r="R37" s="32"/>
+      <c r="U37" s="32"/>
+      <c r="V37" s="32"/>
+      <c r="W37" s="33"/>
+      <c r="X37" s="33"/>
+      <c r="Y37" s="33"/>
+    </row>
+    <row r="38" spans="4:25" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D38" s="50"/>
+      <c r="H38" s="33"/>
+      <c r="J38" s="31"/>
+      <c r="N38" s="50"/>
+      <c r="R38" s="32"/>
+      <c r="U38" s="32"/>
+      <c r="V38" s="32"/>
+      <c r="W38" s="33"/>
+      <c r="X38" s="33"/>
+      <c r="Y38" s="33"/>
+    </row>
+    <row r="39" spans="4:25" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D39" s="50"/>
+      <c r="H39" s="33"/>
+      <c r="J39" s="31"/>
+      <c r="N39" s="50"/>
+      <c r="R39" s="32"/>
+      <c r="U39" s="32"/>
+      <c r="V39" s="32"/>
+      <c r="W39" s="33"/>
+      <c r="X39" s="33"/>
+      <c r="Y39" s="33"/>
+    </row>
+    <row r="40" spans="4:25" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D40" s="50"/>
+      <c r="H40" s="33"/>
+      <c r="J40" s="31"/>
+      <c r="N40" s="50"/>
+      <c r="R40" s="32"/>
+      <c r="U40" s="32"/>
+      <c r="V40" s="32"/>
+      <c r="W40" s="33"/>
+      <c r="X40" s="33"/>
+      <c r="Y40" s="33"/>
+    </row>
+    <row r="41" spans="4:25" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D41" s="50"/>
+      <c r="H41" s="33"/>
+      <c r="J41" s="31"/>
+      <c r="N41" s="50"/>
+      <c r="R41" s="32"/>
+      <c r="U41" s="32"/>
+      <c r="V41" s="32"/>
+      <c r="W41" s="33"/>
+      <c r="X41" s="33"/>
+      <c r="Y41" s="33"/>
+    </row>
+    <row r="42" spans="4:25" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D42" s="50"/>
+      <c r="H42" s="33"/>
+      <c r="J42" s="31"/>
+      <c r="N42" s="50"/>
+      <c r="R42" s="32"/>
+      <c r="U42" s="32"/>
+      <c r="V42" s="32"/>
+      <c r="W42" s="33"/>
+      <c r="X42" s="33"/>
+      <c r="Y42" s="33"/>
+    </row>
+    <row r="43" spans="4:25" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D43" s="50"/>
+      <c r="H43" s="33"/>
+      <c r="J43" s="31"/>
+      <c r="N43" s="50"/>
+      <c r="R43" s="32"/>
+      <c r="U43" s="32"/>
+      <c r="V43" s="32"/>
+      <c r="W43" s="33"/>
+      <c r="X43" s="33"/>
+      <c r="Y43" s="33"/>
+    </row>
+    <row r="44" spans="4:25" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D44" s="50"/>
+      <c r="H44" s="33"/>
+      <c r="J44" s="31"/>
+      <c r="N44" s="50"/>
+      <c r="R44" s="32"/>
+      <c r="U44" s="32"/>
+      <c r="V44" s="32"/>
+      <c r="W44" s="33"/>
+      <c r="X44" s="33"/>
+      <c r="Y44" s="33"/>
+    </row>
+    <row r="45" spans="4:25" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D45" s="50"/>
+      <c r="H45" s="33"/>
+      <c r="J45" s="31"/>
+      <c r="N45" s="50"/>
+      <c r="R45" s="32"/>
+      <c r="U45" s="32"/>
+      <c r="V45" s="32"/>
+      <c r="W45" s="33"/>
+      <c r="X45" s="33"/>
+      <c r="Y45" s="33"/>
+    </row>
+    <row r="46" spans="4:25" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D46" s="50"/>
+      <c r="H46" s="33"/>
+      <c r="J46" s="31"/>
+      <c r="N46" s="50"/>
+      <c r="R46" s="32"/>
+      <c r="U46" s="32"/>
+      <c r="V46" s="32"/>
+      <c r="W46" s="33"/>
+      <c r="X46" s="33"/>
+      <c r="Y46" s="33"/>
+    </row>
+    <row r="47" spans="4:25" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D47" s="50"/>
+      <c r="H47" s="33"/>
+      <c r="J47" s="31"/>
+      <c r="N47" s="50"/>
+      <c r="R47" s="32"/>
+      <c r="U47" s="32"/>
+      <c r="V47" s="32"/>
+      <c r="W47" s="33"/>
+      <c r="X47" s="33"/>
+      <c r="Y47" s="33"/>
+    </row>
+    <row r="48" spans="4:25" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D48" s="50"/>
+      <c r="H48" s="33"/>
+      <c r="J48" s="31"/>
+      <c r="N48" s="50"/>
+      <c r="R48" s="32"/>
+      <c r="U48" s="32"/>
+      <c r="V48" s="32"/>
+      <c r="W48" s="33"/>
+      <c r="X48" s="33"/>
+      <c r="Y48" s="33"/>
+    </row>
+    <row r="49" spans="4:25" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D49" s="50"/>
+      <c r="H49" s="33"/>
+      <c r="J49" s="31"/>
+      <c r="N49" s="50"/>
+      <c r="R49" s="32"/>
+      <c r="U49" s="32"/>
+      <c r="V49" s="32"/>
+      <c r="W49" s="33"/>
+      <c r="X49" s="33"/>
+      <c r="Y49" s="33"/>
+    </row>
+    <row r="50" spans="4:25" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D50" s="50"/>
+      <c r="H50" s="33"/>
+      <c r="J50" s="31"/>
+      <c r="N50" s="50"/>
+      <c r="R50" s="32"/>
+      <c r="U50" s="32"/>
+      <c r="V50" s="32"/>
+      <c r="W50" s="33"/>
+      <c r="X50" s="33"/>
+      <c r="Y50" s="33"/>
+    </row>
+    <row r="51" spans="4:25" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D51" s="50"/>
+      <c r="H51" s="33"/>
+      <c r="J51" s="31"/>
+      <c r="N51" s="50"/>
+      <c r="R51" s="32"/>
+      <c r="U51" s="32"/>
+      <c r="V51" s="32"/>
+      <c r="W51" s="33"/>
+      <c r="X51" s="33"/>
+      <c r="Y51" s="33"/>
+    </row>
+    <row r="52" spans="4:25" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D52" s="50"/>
+      <c r="H52" s="33"/>
+      <c r="J52" s="31"/>
+      <c r="N52" s="50"/>
+      <c r="R52" s="32"/>
+      <c r="U52" s="32"/>
+      <c r="V52" s="32"/>
+      <c r="W52" s="33"/>
+      <c r="X52" s="33"/>
+      <c r="Y52" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="K1:Z1"/>
   </mergeCells>
+  <phoneticPr fontId="44" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
@@ -2738,19 +2772,19 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -2758,7 +2792,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -2766,7 +2800,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -2774,7 +2808,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -2782,7 +2816,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>32</v>
       </c>
@@ -2790,7 +2824,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>34</v>
       </c>
@@ -2798,7 +2832,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>36</v>
       </c>
@@ -2806,7 +2840,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>38</v>
       </c>
@@ -2814,7 +2848,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>40</v>
       </c>
@@ -2822,7 +2856,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>42</v>
       </c>
@@ -2830,7 +2864,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:2" s="18" customFormat="1">
+    <row r="13" spans="1:2" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
         <v>48</v>
       </c>
@@ -2838,7 +2872,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>64</v>
       </c>
@@ -2847,6 +2881,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="44" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
@@ -2863,127 +2898,128 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.85546875" style="38" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="38"/>
+    <col min="1" max="1" width="39.85546875" style="37" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="37"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:3">
-      <c r="A4" s="37" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-    </row>
-    <row r="5" spans="1:3" ht="27">
-      <c r="A5" s="39" t="s">
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+    </row>
+    <row r="5" spans="1:3" ht="27" x14ac:dyDescent="0.25">
+      <c r="A5" s="38" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="27">
-      <c r="A6" s="39" t="s">
+    <row r="6" spans="1:3" ht="27" x14ac:dyDescent="0.25">
+      <c r="A6" s="38" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="27">
-      <c r="A7" s="39" t="s">
+    <row r="7" spans="1:3" ht="27" x14ac:dyDescent="0.25">
+      <c r="A7" s="38" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="27">
-      <c r="A8" s="39" t="s">
+    <row r="8" spans="1:3" ht="27" x14ac:dyDescent="0.25">
+      <c r="A8" s="38" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="27">
-      <c r="A9" s="39" t="s">
+    <row r="9" spans="1:3" ht="27" x14ac:dyDescent="0.25">
+      <c r="A9" s="38" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="27">
-      <c r="A10" s="39" t="s">
+    <row r="10" spans="1:3" ht="27" x14ac:dyDescent="0.25">
+      <c r="A10" s="38" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="27">
-      <c r="A11" s="39" t="s">
+    <row r="11" spans="1:3" ht="27" x14ac:dyDescent="0.25">
+      <c r="A11" s="38" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="27">
-      <c r="A12" s="39" t="s">
+    <row r="12" spans="1:3" ht="27" x14ac:dyDescent="0.25">
+      <c r="A12" s="38" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="27">
-      <c r="A13" s="39" t="s">
+    <row r="13" spans="1:3" ht="27" x14ac:dyDescent="0.25">
+      <c r="A13" s="38" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="27">
-      <c r="A14" s="39" t="s">
+    <row r="14" spans="1:3" ht="27" x14ac:dyDescent="0.25">
+      <c r="A14" s="38" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="30" customHeight="1">
-      <c r="A15" s="39" t="s">
+    <row r="15" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="38" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="40"/>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="40"/>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="40"/>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="40"/>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="40"/>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="40"/>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="40"/>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="40"/>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="40"/>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="40"/>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" s="40"/>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="40"/>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" s="40"/>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" s="40"/>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30" s="40"/>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" s="40"/>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32" s="40"/>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="39"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="39"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="39"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="39"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="39"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="39"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="39"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="39"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="39"/>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="39"/>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="39"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="39"/>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="39"/>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="39"/>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="39"/>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="39"/>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="39"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <phoneticPr fontId="44" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>